--- a/DATA_goal/Junction_Flooding_109.xlsx
+++ b/DATA_goal/Junction_Flooding_109.xlsx
@@ -470,7 +470,7 @@
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -655,103 +655,103 @@
         <v>41541.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>10.43</v>
+        <v>1.04</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>7.12</v>
+        <v>0.71</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.39</v>
+        <v>0.34</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>22.92</v>
+        <v>2.29</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>16.87</v>
+        <v>1.69</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>7.89</v>
+        <v>0.79</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>23.49</v>
+        <v>2.35</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>12.99</v>
+        <v>1.3</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.12</v>
+        <v>0.51</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>7.05</v>
+        <v>0.71</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>9.050000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>9.949999999999999</v>
+        <v>1</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.3</v>
+        <v>0.23</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>8.42</v>
+        <v>0.84</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>11.32</v>
+        <v>1.13</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.78</v>
+        <v>0.78</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.63</v>
+        <v>0.26</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.07</v>
+        <v>0.11</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>120.79</v>
+        <v>12.08</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>23.2</v>
+        <v>2.32</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>7.77</v>
+        <v>0.78</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>14.51</v>
+        <v>1.45</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>7.82</v>
+        <v>0.78</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.16</v>
+        <v>0.22</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>13.23</v>
+        <v>1.32</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>6.87</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>6.47</v>
+        <v>0.65</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>7.37</v>
+        <v>0.74</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.48</v>
+        <v>0.25</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>20.91</v>
+        <v>2.09</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.94</v>
+        <v>0.39</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41541.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>20.73</v>
+        <v>2.07</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>15.3</v>
+        <v>1.53</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.9</v>
+        <v>0.19</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>45.47</v>
+        <v>4.55</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>36.44</v>
+        <v>3.64</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>16.14</v>
+        <v>1.61</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>60.28</v>
+        <v>6.03</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>25.32</v>
+        <v>2.53</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>11.15</v>
+        <v>1.12</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>16.08</v>
+        <v>1.61</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>18.21</v>
+        <v>1.82</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>19.5</v>
+        <v>1.95</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.02</v>
+        <v>0.5</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>16.39</v>
+        <v>1.64</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>23.09</v>
+        <v>2.31</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>14.12</v>
+        <v>1.41</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.37</v>
+        <v>0.14</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>242.18</v>
+        <v>24.22</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>45.79</v>
+        <v>4.58</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>15.13</v>
+        <v>1.51</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>30.41</v>
+        <v>3.04</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>16</v>
+        <v>1.6</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.56</v>
+        <v>0.26</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>30.57</v>
+        <v>3.06</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>13.36</v>
+        <v>1.34</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>12</v>
+        <v>1.2</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>14.05</v>
+        <v>1.41</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>19.18</v>
+        <v>1.92</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>54.97</v>
+        <v>5.5</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>8.35</v>
+        <v>0.83</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>18.92</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41541.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>14.06</v>
+        <v>1.41</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>10.41</v>
+        <v>1.04</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.22</v>
+        <v>0.12</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>30.9</v>
+        <v>3.09</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>24.76</v>
+        <v>2.48</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>10.95</v>
+        <v>1.09</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>45.33</v>
+        <v>4.53</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>17.18</v>
+        <v>1.72</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.63</v>
+        <v>0.76</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>10.89</v>
+        <v>1.09</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>12.38</v>
+        <v>1.24</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>13.27</v>
+        <v>1.33</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.4</v>
+        <v>0.34</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>11.13</v>
+        <v>1.11</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>15.69</v>
+        <v>1.57</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>9.609999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="R4" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>16.21</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AA4" s="4" t="n">
         <v>0.91</v>
       </c>
-      <c r="S4" s="4" t="n">
+      <c r="AB4" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AE4" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AF4" s="4" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="AG4" s="4" t="n">
         <v>0.57</v>
       </c>
-      <c r="T4" s="4" t="n">
-        <v>162.07</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>31.19</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>10.27</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>20.71</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>10.87</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>22.12</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>13.03</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AF4" s="4" t="n">
-        <v>41.35</v>
-      </c>
-      <c r="AG4" s="4" t="n">
-        <v>5.66</v>
-      </c>
       <c r="AH4" s="4" t="n">
-        <v>12.84</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41541.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>11.4</v>
+        <v>1.14</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.470000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>25.06</v>
+        <v>2.51</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>20.13</v>
+        <v>2.01</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>8.880000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>36.71</v>
+        <v>3.67</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>13.93</v>
+        <v>1.39</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.22</v>
+        <v>0.62</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.859999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.05</v>
+        <v>1</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>10.77</v>
+        <v>1.08</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.76</v>
+        <v>0.28</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.02</v>
+        <v>0.9</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>12.73</v>
+        <v>1.27</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.78</v>
+        <v>0.78</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>130.02</v>
+        <v>13</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>25.28</v>
+        <v>2.53</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.33</v>
+        <v>0.83</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>16.81</v>
+        <v>1.68</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.82</v>
+        <v>0.88</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.37</v>
+        <v>0.14</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>17.83</v>
+        <v>1.78</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.36</v>
+        <v>0.74</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.6</v>
+        <v>0.66</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.74</v>
+        <v>0.77</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>10.57</v>
+        <v>1.06</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>33.38</v>
+        <v>3.34</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.6</v>
+        <v>0.46</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>10.41</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41541.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>21.41</v>
+        <v>2.14</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>16.02</v>
+        <v>1.6</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>1.15</v>
+        <v>0.11</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>46.81</v>
+        <v>4.68</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>38.23</v>
+        <v>3.82</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>16.77</v>
+        <v>1.68</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>63.96</v>
+        <v>6.4</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>26.03</v>
+        <v>2.6</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>11.68</v>
+        <v>1.17</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>17.07</v>
+        <v>1.71</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>18.78</v>
+        <v>1.88</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>19.98</v>
+        <v>2</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>5.29</v>
+        <v>0.53</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>16.84</v>
+        <v>1.68</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>23.93</v>
+        <v>2.39</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>14.2</v>
+        <v>1.42</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>249.05</v>
+        <v>24.91</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>47.06</v>
+        <v>4.71</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>15.55</v>
+        <v>1.55</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>31.64</v>
+        <v>3.16</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>16.62</v>
+        <v>1.66</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>2.35</v>
+        <v>0.24</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>31.6</v>
+        <v>3.16</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>13.73</v>
+        <v>1.37</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>12.17</v>
+        <v>1.22</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>14.3</v>
+        <v>1.43</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>19.75</v>
+        <v>1.97</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>58.02</v>
+        <v>5.8</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>8.74</v>
+        <v>0.87</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>19.44</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41541.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>6.82</v>
+        <v>0.68</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>5.07</v>
+        <v>0.51</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>15.04</v>
+        <v>1.5</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>12.04</v>
+        <v>1.2</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>5.3</v>
+        <v>0.53</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>26.18</v>
+        <v>2.62</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>8.34</v>
+        <v>0.83</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>3.79</v>
+        <v>0.38</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>5.27</v>
+        <v>0.53</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>6.03</v>
+        <v>0.6</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>6.48</v>
+        <v>0.65</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>1.65</v>
+        <v>0.16</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>5.41</v>
+        <v>0.54</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>7.67</v>
+        <v>0.77</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>4.69</v>
+        <v>0.47</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>75.11</v>
+        <v>7.51</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>15.37</v>
+        <v>1.54</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>10.23</v>
+        <v>1.02</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>5.31</v>
+        <v>0.53</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>12.34</v>
+        <v>1.23</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>4.41</v>
+        <v>0.44</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>3.98</v>
+        <v>0.4</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>4.66</v>
+        <v>0.47</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>6.34</v>
+        <v>0.63</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>24.14</v>
+        <v>2.41</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>2.75</v>
+        <v>0.27</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>6.25</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41541.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>9.24</v>
+        <v>0.92</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>6.9</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>20.27</v>
+        <v>2.03</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>16.42</v>
+        <v>1.64</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>7.21</v>
+        <v>0.72</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>28.56</v>
+        <v>2.86</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>11.25</v>
+        <v>1.13</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>5.06</v>
+        <v>0.51</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>7.26</v>
+        <v>0.73</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>8.130000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>8.69</v>
+        <v>0.87</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>2.26</v>
+        <v>0.23</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>7.29</v>
+        <v>0.73</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>10.31</v>
+        <v>1.03</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>6.22</v>
+        <v>0.62</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>103.68</v>
+        <v>10.37</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>20.37</v>
+        <v>2.04</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>6.73</v>
+        <v>0.67</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>13.61</v>
+        <v>1.36</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>7.19</v>
+        <v>0.72</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.06</v>
+        <v>0.11</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>13.86</v>
+        <v>1.39</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>5.95</v>
+        <v>0.59</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>5.31</v>
+        <v>0.53</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>6.23</v>
+        <v>0.62</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>8.550000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>25.79</v>
+        <v>2.58</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>3.75</v>
+        <v>0.37</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>8.42</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41541.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>5.31</v>
+        <v>0.53</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>3.95</v>
+        <v>0.4</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>11.7</v>
+        <v>1.17</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>9.380000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>4.12</v>
+        <v>0.41</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>18.59</v>
+        <v>1.86</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>6.49</v>
+        <v>0.65</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>2.95</v>
+        <v>0.3</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>4.1</v>
+        <v>0.41</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>4.69</v>
+        <v>0.47</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>5.04</v>
+        <v>0.5</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>1.28</v>
+        <v>0.13</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>4.21</v>
+        <v>0.42</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>5.95</v>
+        <v>0.59</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>3.65</v>
+        <v>0.36</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>56.78</v>
+        <v>5.68</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>11.89</v>
+        <v>1.19</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>3.89</v>
+        <v>0.39</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>7.91</v>
+        <v>0.79</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>4.12</v>
+        <v>0.41</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>8.93</v>
+        <v>0.89</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>3.43</v>
+        <v>0.34</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>3.09</v>
+        <v>0.31</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>3.62</v>
+        <v>0.36</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>4.94</v>
+        <v>0.49</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>17.03</v>
+        <v>1.7</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>2.14</v>
+        <v>0.21</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>4.86</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41541.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>8.289999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>6.2</v>
+        <v>0.62</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>18.18</v>
+        <v>1.82</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>14.78</v>
+        <v>1.48</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>6.48</v>
+        <v>0.65</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>24.71</v>
+        <v>2.47</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>10.09</v>
+        <v>1.01</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>4.55</v>
+        <v>0.46</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>6.55</v>
+        <v>0.65</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>7.29</v>
+        <v>0.73</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>7.78</v>
+        <v>0.78</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>2.03</v>
+        <v>0.2</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>6.54</v>
+        <v>0.65</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>9.25</v>
+        <v>0.92</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>5.56</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.35</v>
+        <v>0.03</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>92.22</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>18.24</v>
+        <v>1.82</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>6.04</v>
+        <v>0.6</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>12.2</v>
+        <v>1.22</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>6.43</v>
+        <v>0.64</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>12.12</v>
+        <v>1.21</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>5.33</v>
+        <v>0.53</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>4.75</v>
+        <v>0.47</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>5.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>7.67</v>
+        <v>0.77</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>22.29</v>
+        <v>2.23</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>3.37</v>
+        <v>0.34</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>7.55</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_109.xlsx
+++ b/DATA_goal/Junction_Flooding_109.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41541.34027777778</v>
+        <v>44790.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.04</v>
+        <v>2.07</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.71</v>
+        <v>1.4</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.34</v>
+        <v>0.41</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.29</v>
+        <v>4.37</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.69</v>
+        <v>3.56</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.79</v>
+        <v>1.63</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.35</v>
+        <v>5.26</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.51</v>
+        <v>1.05</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.71</v>
+        <v>1.61</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.9</v>
+        <v>1.73</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.23</v>
+        <v>0.52</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.84</v>
+        <v>1.62</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.13</v>
+        <v>2.26</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.78</v>
+        <v>1.37</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.26</v>
+        <v>0.37</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>12.08</v>
+        <v>23.87</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.32</v>
+        <v>4.5</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.78</v>
+        <v>1.49</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.45</v>
+        <v>2.97</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.78</v>
+        <v>1.53</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.22</v>
+        <v>0.29</v>
       </c>
       <c r="Z2" s="4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AA2" s="4" t="n">
         <v>1.32</v>
       </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
       <c r="AB2" s="4" t="n">
-        <v>0.65</v>
+        <v>1.19</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.74</v>
+        <v>1.4</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.97</v>
+        <v>1.77</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.09</v>
+        <v>4.65</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.39</v>
+        <v>0.83</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.97</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41541.34722222222</v>
+        <v>44790.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.07</v>
+        <v>0.38</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.53</v>
+        <v>0.22</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.55</v>
+        <v>0.8</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.64</v>
+        <v>0.63</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.61</v>
+        <v>0.3</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>6.03</v>
+        <v>1.71</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.53</v>
+        <v>0.47</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.12</v>
+        <v>0.18</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.61</v>
+        <v>0.26</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.82</v>
+        <v>0.32</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.95</v>
+        <v>0.32</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.64</v>
+        <v>0.3</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.31</v>
+        <v>0.42</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.41</v>
+        <v>0.29</v>
       </c>
       <c r="R3" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AE3" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AF3" s="4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AG3" s="4" t="n">
         <v>0.14</v>
       </c>
-      <c r="S3" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>24.22</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AF3" s="4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AG3" s="4" t="n">
-        <v>0.83</v>
-      </c>
       <c r="AH3" s="4" t="n">
-        <v>1.89</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41541.35416666666</v>
+        <v>44790.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.41</v>
+        <v>2.4</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.04</v>
+        <v>1.76</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.09</v>
+        <v>5.2</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.48</v>
+        <v>4.28</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.09</v>
+        <v>1.89</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4.53</v>
+        <v>6.87</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.72</v>
+        <v>2.91</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.76</v>
+        <v>1.28</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.09</v>
+        <v>1.91</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.24</v>
+        <v>2.09</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.33</v>
+        <v>2.2</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.34</v>
+        <v>0.6</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.11</v>
+        <v>1.88</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.57</v>
+        <v>2.67</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.96</v>
+        <v>1.59</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>16.21</v>
+        <v>27.88</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.12</v>
+        <v>5.25</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.03</v>
+        <v>1.74</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.07</v>
+        <v>3.52</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.09</v>
+        <v>1.86</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.17</v>
+        <v>0.28</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.21</v>
+        <v>3.39</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.91</v>
+        <v>1.53</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.82</v>
+        <v>1.36</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.96</v>
+        <v>1.6</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.3</v>
+        <v>2.18</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.14</v>
+        <v>6.22</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.57</v>
+        <v>0.98</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.28</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41541.36111111111</v>
+        <v>44790.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.14</v>
+        <v>1.78</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.85</v>
+        <v>1.3</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.51</v>
+        <v>3.85</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.01</v>
+        <v>3.16</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.89</v>
+        <v>1.4</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.67</v>
+        <v>5.58</v>
       </c>
       <c r="I5" s="4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="O5" s="4" t="n">
         <v>1.39</v>
       </c>
-      <c r="J5" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.9</v>
-      </c>
       <c r="P5" s="4" t="n">
-        <v>1.27</v>
+        <v>1.98</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.78</v>
+        <v>1.18</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>13</v>
+        <v>20.44</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.53</v>
+        <v>3.9</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.83</v>
+        <v>1.28</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.68</v>
+        <v>2.61</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.88</v>
+        <v>1.37</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.14</v>
+        <v>0.21</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.78</v>
+        <v>2.68</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.74</v>
+        <v>1.13</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.66</v>
+        <v>1.01</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.77</v>
+        <v>1.19</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.06</v>
+        <v>1.62</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.34</v>
+        <v>5.08</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.46</v>
+        <v>0.72</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.04</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41541.36805555555</v>
+        <v>44790.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>2.14</v>
+        <v>10.57</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.6</v>
+        <v>7.67</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.11</v>
+        <v>0.79</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>4.68</v>
+        <v>22.88</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>3.82</v>
+        <v>18.72</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.68</v>
+        <v>8.32</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>6.4</v>
+        <v>35.03</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>2.6</v>
+        <v>12.8</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>1.17</v>
+        <v>5.63</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.71</v>
+        <v>8.32</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.88</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>2</v>
+        <v>9.65</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.53</v>
+        <v>2.66</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.68</v>
+        <v>8.27</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>2.39</v>
+        <v>11.74</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>1.42</v>
+        <v>7.07</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.49</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>24.91</v>
+        <v>118.58</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>4.71</v>
+        <v>23.22</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.55</v>
+        <v>7.63</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>3.16</v>
+        <v>15.5</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.66</v>
+        <v>8.16</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.24</v>
+        <v>1.32</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>3.16</v>
+        <v>16.51</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>1.37</v>
+        <v>6.74</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>1.22</v>
+        <v>6.04</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>1.43</v>
+        <v>7.09</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.97</v>
+        <v>9.6</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>5.8</v>
+        <v>31.87</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.87</v>
+        <v>4.27</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.94</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41541.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>7.51</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41541.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>10.37</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41541.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41541.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>9.220000000000001</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41541.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>21.56</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>16.17</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>47.03</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>38.65</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>16.92</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>62.77</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>26.15</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>17.34</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>18.87</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>20.02</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>16.92</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>24.11</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>14.14</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>250.19</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>47.25</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>15.62</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>31.89</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>16.75</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>31.24</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>13.79</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>19.84</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>56.95</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>8.84</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>19.52</v>
+        <v>9.550000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_109.xlsx
+++ b/DATA_goal/Junction_Flooding_109.xlsx
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44790.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.07</v>
+        <v>20.66</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.4</v>
+        <v>14.03</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.41</v>
+        <v>4.08</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.37</v>
+        <v>43.7</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.56</v>
+        <v>35.64</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.63</v>
+        <v>16.26</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.26</v>
+        <v>52.56</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.5</v>
+        <v>25.01</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.05</v>
+        <v>10.52</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.61</v>
+        <v>16.08</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.73</v>
+        <v>17.26</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.8</v>
+        <v>18.02</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.19</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.62</v>
+        <v>16.17</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.26</v>
+        <v>22.64</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.37</v>
+        <v>13.69</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.71</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.45</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>23.87</v>
+        <v>238.72</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.5</v>
+        <v>44.98</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.49</v>
+        <v>14.92</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.97</v>
+        <v>29.66</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.53</v>
+        <v>15.32</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.94</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.6</v>
+        <v>26.04</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.32</v>
+        <v>13.18</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.19</v>
+        <v>11.92</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.4</v>
+        <v>13.95</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.77</v>
+        <v>17.71</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.46</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.65</v>
+        <v>46.55</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.83</v>
+        <v>8.34</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.87</v>
+        <v>18.66</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44790.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.84</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.18</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.39</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.8</v>
+        <v>7.96</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.63</v>
+        <v>6.25</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.3</v>
+        <v>3.03</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.71</v>
+        <v>17.14</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.47</v>
+        <v>4.65</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.83</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.64</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.32</v>
+        <v>3.19</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.32</v>
+        <v>3.18</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.98</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.3</v>
+        <v>3.01</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.42</v>
+        <v>4.16</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.87</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.5</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>3.85</v>
+        <v>38.53</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.88</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.28</v>
+        <v>2.78</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.55</v>
+        <v>5.53</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.28</v>
+        <v>2.84</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.76</v>
+        <v>7.6</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.45</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.24</v>
+        <v>2.43</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.28</v>
+        <v>2.81</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.08</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.27</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.6</v>
+        <v>16.04</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.45</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44790.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.4</v>
+        <v>24.02</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.76</v>
+        <v>17.59</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.16</v>
+        <v>1.58</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>5.2</v>
+        <v>52.03</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>4.28</v>
+        <v>42.75</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.89</v>
+        <v>18.9</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>6.87</v>
+        <v>68.73999999999999</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.91</v>
+        <v>29.09</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.28</v>
+        <v>12.84</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.91</v>
+        <v>19.14</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.09</v>
+        <v>20.91</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.2</v>
+        <v>21.97</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.6</v>
+        <v>6.04</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.88</v>
+        <v>18.8</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.67</v>
+        <v>26.69</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.59</v>
+        <v>15.88</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.05</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>27.88</v>
+        <v>278.8</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>5.25</v>
+        <v>52.46</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.74</v>
+        <v>17.35</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.52</v>
+        <v>35.19</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.86</v>
+        <v>18.56</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.83</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.39</v>
+        <v>33.92</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.53</v>
+        <v>15.33</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.36</v>
+        <v>13.64</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.6</v>
+        <v>16.02</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.18</v>
+        <v>21.81</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>6.22</v>
+        <v>62.16</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.98</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.17</v>
+        <v>21.69</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44790.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.78</v>
+        <v>17.78</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.3</v>
+        <v>13.01</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.15</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.85</v>
+        <v>38.52</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.16</v>
+        <v>31.62</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.4</v>
+        <v>13.99</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5.58</v>
+        <v>55.84</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.15</v>
+        <v>21.52</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.95</v>
+        <v>9.52</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.41</v>
+        <v>14.13</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.55</v>
+        <v>15.5</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.63</v>
+        <v>16.27</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.45</v>
+        <v>4.47</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.39</v>
+        <v>13.91</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.98</v>
+        <v>19.77</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.18</v>
+        <v>11.78</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.84</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>20.44</v>
+        <v>204.42</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.9</v>
+        <v>38.95</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.28</v>
+        <v>12.84</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.61</v>
+        <v>26.11</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.37</v>
+        <v>13.74</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.21</v>
+        <v>2.11</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.68</v>
+        <v>26.8</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.13</v>
+        <v>11.34</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.01</v>
+        <v>10.1</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.19</v>
+        <v>11.86</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.62</v>
+        <v>16.17</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.08</v>
+        <v>50.75</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.72</v>
+        <v>7.23</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.61</v>
+        <v>16.05</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_109.xlsx
+++ b/DATA_goal/Junction_Flooding_109.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44790.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>20.66</v>
+        <v>20.658</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>14.03</v>
+        <v>14.028</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>4.08</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>43.7</v>
+        <v>43.704</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>35.64</v>
+        <v>35.637</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>16.26</v>
+        <v>16.257</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>52.56</v>
+        <v>52.557</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>25.01</v>
+        <v>25.014</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>10.52</v>
+        <v>10.522</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>16.08</v>
+        <v>16.084</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>17.26</v>
+        <v>17.263</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>18.02</v>
+        <v>18.024</v>
       </c>
       <c r="N2" s="4" t="n">
         <v>5.19</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>16.17</v>
+        <v>16.166</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>22.64</v>
+        <v>22.644</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>13.69</v>
+        <v>13.689</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.71</v>
+        <v>3.709</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.45</v>
+        <v>2.453</v>
       </c>
       <c r="T2" s="4" t="n">
         <v>238.72</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>44.98</v>
+        <v>44.979</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>14.92</v>
+        <v>14.922</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>29.66</v>
+        <v>29.658</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>15.32</v>
+        <v>15.316</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.94</v>
+        <v>2.936</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>26.04</v>
+        <v>26.039</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>13.18</v>
+        <v>13.181</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>11.92</v>
+        <v>11.919</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>13.95</v>
+        <v>13.951</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>17.71</v>
+        <v>17.711</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.46</v>
+        <v>3.458</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>46.55</v>
+        <v>46.546</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.34</v>
+        <v>8.337999999999999</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>18.66</v>
+        <v>18.656</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44790.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>3.84</v>
+        <v>3.843</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2.18</v>
+        <v>2.184</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.39</v>
+        <v>1.387</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>7.96</v>
+        <v>7.956</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>6.25</v>
+        <v>6.251</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>3.03</v>
+        <v>3.026</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>17.14</v>
+        <v>17.145</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>4.65</v>
+        <v>4.654</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.83</v>
+        <v>1.834</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>2.64</v>
+        <v>2.635</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3.19</v>
+        <v>3.186</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>3.18</v>
+        <v>3.177</v>
       </c>
       <c r="N3" s="4" t="n">
         <v>0.98</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3.01</v>
+        <v>3.008</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>4.16</v>
+        <v>4.158</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2.87</v>
+        <v>2.869</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.5</v>
+        <v>1.497</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.71</v>
+        <v>0.709</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>38.53</v>
+        <v>38.532</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>8.786</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.78</v>
+        <v>2.776</v>
       </c>
       <c r="W3" s="4" t="n">
         <v>5.53</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>2.84</v>
+        <v>2.842</v>
       </c>
       <c r="Y3" s="4" t="n">
         <v>0.9</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>7.6</v>
+        <v>7.605</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>2.45</v>
+        <v>2.452</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.43</v>
+        <v>2.431</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.81</v>
+        <v>2.806</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>3.08</v>
+        <v>3.084</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.27</v>
+        <v>1.266</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>16.04</v>
+        <v>16.037</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.45</v>
+        <v>1.447</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>3.47</v>
+        <v>3.475</v>
       </c>
     </row>
     <row r="4">
@@ -863,34 +863,34 @@
         <v>44790.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>24.02</v>
+        <v>24.021</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>17.59</v>
+        <v>17.587</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.58</v>
+        <v>1.575</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>52.03</v>
+        <v>52.028</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>42.75</v>
+        <v>42.751</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>18.9</v>
+        <v>18.904</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>68.73999999999999</v>
+        <v>68.736</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>29.09</v>
+        <v>29.086</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>12.84</v>
+        <v>12.842</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>19.14</v>
+        <v>19.138</v>
       </c>
       <c r="L4" s="4" t="n">
         <v>20.91</v>
@@ -899,67 +899,67 @@
         <v>21.97</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>6.04</v>
+        <v>6.037</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>18.8</v>
+        <v>18.798</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>26.69</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>15.88</v>
+        <v>15.878</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.14</v>
+        <v>1.136</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>1.05</v>
+        <v>1.046</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>278.8</v>
+        <v>278.802</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>52.46</v>
+        <v>52.463</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>17.35</v>
+        <v>17.351</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>35.19</v>
+        <v>35.187</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>18.56</v>
+        <v>18.558</v>
       </c>
       <c r="Y4" s="4" t="n">
         <v>2.83</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>33.92</v>
+        <v>33.919</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>15.33</v>
+        <v>15.326</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>13.64</v>
+        <v>13.641</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>16.02</v>
+        <v>16.022</v>
       </c>
       <c r="AD4" s="4" t="n">
         <v>21.81</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>62.16</v>
+        <v>62.162</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>9.779999999999999</v>
+        <v>9.782999999999999</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>21.69</v>
+        <v>21.693</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>16.05</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44790.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>10.57</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>22.88</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>8.32</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>35.03</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>8.32</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>9.220000000000001</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>8.27</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>118.58</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>23.22</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>7.09</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>31.87</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>9.550000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_109.xlsx
+++ b/DATA_goal/Junction_Flooding_109.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44790.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>17.78</v>
+        <v>17.776</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.01</v>
+        <v>13.013</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.15</v>
+        <v>1.151</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>38.52</v>
+        <v>38.518</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>31.62</v>
+        <v>31.617</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>13.99</v>
+        <v>13.989</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>55.84</v>
+        <v>55.841</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>21.52</v>
+        <v>21.524</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>9.52</v>
+        <v>9.516999999999999</v>
       </c>
       <c r="K5" s="4" t="n">
         <v>14.13</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>15.5</v>
+        <v>15.495</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>16.27</v>
+        <v>16.271</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.47</v>
+        <v>4.469</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>13.91</v>
+        <v>13.911</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>19.77</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11.78</v>
+        <v>11.776</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.84</v>
+        <v>0.837</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.76</v>
+        <v>0.756</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>204.42</v>
+        <v>204.424</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>38.95</v>
+        <v>38.953</v>
       </c>
       <c r="V5" s="4" t="n">
         <v>12.84</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>26.11</v>
+        <v>26.107</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>13.74</v>
+        <v>13.745</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>2.11</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>26.8</v>
+        <v>26.805</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.34</v>
+        <v>11.342</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.1</v>
+        <v>10.101</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>11.86</v>
+        <v>11.863</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>16.17</v>
+        <v>16.166</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>50.75</v>
+        <v>50.752</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.23</v>
+        <v>7.227</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>16.05</v>
+        <v>16.053</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44790.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>22.88</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>35.03</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>8.27</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>118.58</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>23.22</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>8.16</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>31.87</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>9.550000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_109.xlsx
+++ b/DATA_goal/Junction_Flooding_109.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44790.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>17.776</v>
+        <v>17.78</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.013</v>
+        <v>13.01</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.151</v>
+        <v>1.15</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>38.518</v>
+        <v>38.52</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>31.617</v>
+        <v>31.62</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>13.989</v>
+        <v>13.99</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>55.841</v>
+        <v>55.84</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>21.524</v>
+        <v>21.52</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>9.516999999999999</v>
+        <v>9.52</v>
       </c>
       <c r="K5" s="4" t="n">
         <v>14.13</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>15.495</v>
+        <v>15.5</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>16.271</v>
+        <v>16.27</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.469</v>
+        <v>4.47</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>13.911</v>
+        <v>13.91</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>19.77</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11.776</v>
+        <v>11.78</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.837</v>
+        <v>0.84</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.756</v>
+        <v>0.76</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>204.424</v>
+        <v>204.42</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>38.953</v>
+        <v>38.95</v>
       </c>
       <c r="V5" s="4" t="n">
         <v>12.84</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>26.107</v>
+        <v>26.11</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>13.745</v>
+        <v>13.74</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>2.11</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>26.805</v>
+        <v>26.8</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.342</v>
+        <v>11.34</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.101</v>
+        <v>10.1</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>11.863</v>
+        <v>11.86</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>16.166</v>
+        <v>16.17</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>50.752</v>
+        <v>50.75</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.227</v>
+        <v>7.23</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>16.053</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44790.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>10.57</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>22.88</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>8.32</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>35.03</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>8.32</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>9.220000000000001</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>8.27</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>118.58</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>23.22</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>7.09</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>31.87</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>16.05</v>
       </c>
     </row>
   </sheetData>
